--- a/PALMARES_DO_SUL.xlsx
+++ b/PALMARES_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E046397-1BD6-4252-B704-87E3598601B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{727329FB-4D2F-4218-8B0D-8C940104A9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1071,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1131,36 +1118,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,14 +1162,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6BC26272-7216-40E2-BE78-6B49F3DEC5B2}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7EFF0C60-3698-457F-8E03-93E3774D3D5A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F99818-058D-4772-8225-7526DDE4CB42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B510A828-9A8F-4FC6-A979-89706C0C533B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD4F93B-0B45-4BBF-9542-CA687271C2AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1043044-9650-4BFA-B703-E6A8DE34B596}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3703F27C-9A30-4667-9E52-EF37C49ADC33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F82BB39-9C95-42C5-9D1E-6CA64C97DA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235622F3-C972-5F60-380E-7EBEC3C3B4B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA9457D-F9D6-B05D-267A-1E628145A8BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1454,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25A802B-37D7-00D3-FFF5-30380CA1A1D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C48BD75-1B78-3588-9011-0B0B65CD5AC6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1473,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DAB9960-B945-BF78-9AE2-E0A95905E68C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46A8BE6-FBEC-E049-D1A4-794996B850B9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47AAFAB-9479-2A38-2E49-802A6DB7B16D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994AD2C2-B721-7B35-5CD8-3FC9634EEC08}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE03C90A-5732-5A7F-9412-5D52FD23F8E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3147AD08-161D-5337-B9BE-DABBAED0E27C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1578,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9E69B7-0C7D-4905-8750-BD4D29EEA85C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63C6174-E861-462C-AE10-52CA1F1E7CB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209D2DA8-607E-46CB-B614-C5DF9F850D89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F385B257-0E60-4877-8845-E2299D44A613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAE95C6-93E8-4897-A3C0-B01426716A46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7693887E-9BD8-4946-B60A-DC0F67F6775B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A77396-B415-4098-BC47-2AD99D272DFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A18B94-D10C-4316-80DB-EA8F0694E453}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1984,98 +1942,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5337,19 +5295,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5372,46 +5330,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5436,54 +5394,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5494,43 +5453,43 @@
       <c r="B2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45170</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>1256</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>9565</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>788</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="27" t="s">
         <v>300</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5561,25 +5520,24 @@
       <c r="B1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="32">
         <v>22</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="35">
-        <v>22</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>1.454834016664462E-3</v>
       </c>
     </row>

--- a/PALMARES_DO_SUL.xlsx
+++ b/PALMARES_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{727329FB-4D2F-4218-8B0D-8C940104A9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF96F5F-B5B2-46D0-89A2-708538A8B816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{7EFF0C60-3698-457F-8E03-93E3774D3D5A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6DACB8D9-F7DF-476F-A086-278A43270496}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B510A828-9A8F-4FC6-A979-89706C0C533B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EDE9BF-F594-4268-BA57-858EC8B8D2FB}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1043044-9650-4BFA-B703-E6A8DE34B596}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BAAD9D-A336-4512-818A-A1D4AB500216}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F82BB39-9C95-42C5-9D1E-6CA64C97DA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311EC031-5969-496B-8E32-78803D5E590B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA9457D-F9D6-B05D-267A-1E628145A8BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A996627-9446-5387-F73F-BA003E95F242}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C48BD75-1B78-3588-9011-0B0B65CD5AC6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD3DDB2-C119-9925-21A0-D4B6F368B5FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46A8BE6-FBEC-E049-D1A4-794996B850B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEF98A5-C814-0014-4B9C-61515B95437D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994AD2C2-B721-7B35-5CD8-3FC9634EEC08}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6F17C0-3E79-B2FB-E5F4-B1BC3956E5A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3147AD08-161D-5337-B9BE-DABBAED0E27C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986E0ED0-EEBF-5E34-FE25-3E5B25A8E050}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63C6174-E861-462C-AE10-52CA1F1E7CB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81AB52C-F79E-424A-8EB4-8C84FD06E54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F385B257-0E60-4877-8845-E2299D44A613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0423240-F4B2-45BE-8E2B-61B9F82B197F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7693887E-9BD8-4946-B60A-DC0F67F6775B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E7F6D6-8C60-4023-A8D0-4E05983BEDE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A18B94-D10C-4316-80DB-EA8F0694E453}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49662D7D-C647-43E4-8B5B-B9F5381FDA09}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/PALMARES_DO_SUL.xlsx
+++ b/PALMARES_DO_SUL.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF96F5F-B5B2-46D0-89A2-708538A8B816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F9E1523-D843-4CC2-B302-AC58D332081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="301">
   <si>
     <t>COMARCA</t>
   </si>
@@ -929,15 +928,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>PALMARES DO SUL</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,27 +1180,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6DACB8D9-F7DF-476F-A086-278A43270496}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0A463AAB-E151-4233-BB57-8E87DBB00939}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EDE9BF-F594-4268-BA57-858EC8B8D2FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602C4161-030D-40BD-AB63-54BD91BCE489}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BAAD9D-A336-4512-818A-A1D4AB500216}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBCDBC9-0151-4812-B7F7-F04B94C197CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311EC031-5969-496B-8E32-78803D5E590B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421614D4-2228-4EDD-A6C3-07EF6914D6B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A996627-9446-5387-F73F-BA003E95F242}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C7FE41-53DD-7D39-0BA9-BDF7BE3CA859}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD3DDB2-C119-9925-21A0-D4B6F368B5FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54709CDD-7009-B4EF-31B3-F9FAA2D961A6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEF98A5-C814-0014-4B9C-61515B95437D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A360313C-EC9B-823E-BB1A-DB28C68A591A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6F17C0-3E79-B2FB-E5F4-B1BC3956E5A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73243E57-E76B-B4C9-7BFA-11E40FD75985}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986E0ED0-EEBF-5E34-FE25-3E5B25A8E050}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608E7F08-560D-D3AD-0D8C-23060691D13B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81AB52C-F79E-424A-8EB4-8C84FD06E54A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD41F49-D0D0-4AE7-AF83-860D55E3F2CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0423240-F4B2-45BE-8E2B-61B9F82B197F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D87343-D085-4CD1-BC0C-8BF3E3138C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1592,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E7F6D6-8C60-4023-A8D0-4E05983BEDE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B91E69-2B01-4734-8284-0972937ADE41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49662D7D-C647-43E4-8B5B-B9F5381FDA09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C5710-BE54-4EAF-B8D3-7168680B9E5F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1942,98 +1917,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5496,52 +5471,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="32">
-        <v>22</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.454834016664462E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/PALMARES_DO_SUL.xlsx
+++ b/PALMARES_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F9E1523-D843-4CC2-B302-AC58D332081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA946BD-D3D8-4187-A7EE-53488932D6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0A463AAB-E151-4233-BB57-8E87DBB00939}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A88E5A62-70C3-4FC4-8860-FB92C3E11403}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1215,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602C4161-030D-40BD-AB63-54BD91BCE489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FB4181-91D4-440A-9784-FC3C46D52937}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBCDBC9-0151-4812-B7F7-F04B94C197CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4E1413-310A-4495-A78E-05C2AB8C5B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421614D4-2228-4EDD-A6C3-07EF6914D6B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5884FA9A-5C51-4435-BC93-EAB3E4E2EF0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C7FE41-53DD-7D39-0BA9-BDF7BE3CA859}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A777D07-9F26-3185-127D-61DD562794A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54709CDD-7009-B4EF-31B3-F9FAA2D961A6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B504AF76-82DB-66A1-7793-1871F06B9B4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A360313C-EC9B-823E-BB1A-DB28C68A591A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697A88C1-81D1-2086-78C0-0609F16D0F3E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73243E57-E76B-B4C9-7BFA-11E40FD75985}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C397B2B-566C-DF56-3962-1FFCE4C12A3C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608E7F08-560D-D3AD-0D8C-23060691D13B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578D7481-A88C-D6BA-35C2-2E1A21BCFF8B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD41F49-D0D0-4AE7-AF83-860D55E3F2CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A89A5AC-E372-49DB-8F83-B4FFEDB17C6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D87343-D085-4CD1-BC0C-8BF3E3138C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA9E35C-C6C9-4012-9806-CED6970AF7B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,50 +1574,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B91E69-2B01-4734-8284-0972937ADE41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1905,7 +1861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C5710-BE54-4EAF-B8D3-7168680B9E5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0C341-5E26-4898-BAF2-2305C993055C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
